--- a/Standards/Code/车辆类别编码.xlsx
+++ b/Standards/Code/车辆类别编码.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanwang/Documents/Work/Jiaanpei/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanwang/Documents/Work/Jiaanpei/Standards/Code/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1540" yWindow="6880" windowWidth="14400" windowHeight="9660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16260" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>编码</t>
   </si>
   <si>
     <t>类型</t>
+  </si>
+  <si>
+    <t>载货汽车</t>
+  </si>
+  <si>
+    <t>越野汽车</t>
+  </si>
+  <si>
+    <t>自卸汽车</t>
+  </si>
+  <si>
+    <t>牵引汽车</t>
+  </si>
+  <si>
+    <t>专用汽车</t>
+  </si>
+  <si>
+    <t>客车</t>
+  </si>
+  <si>
+    <t>轿车</t>
+  </si>
+  <si>
+    <t>半挂车</t>
   </si>
 </sst>
 </file>
@@ -347,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -363,6 +387,70 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
